--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/RHODE_ISLAND_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/RHODE_ISLAND_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Comitan De Dominguez</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tuxtla Gutierrez</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Villa Comaltitlan</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cuautitlan Izcalli</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Melchor Ocampo</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tecamac</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Xichu</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Olinala</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Nicolas Flores</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Nopala De Villagran</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zimapan</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Agustin Yatareni</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Santa Maria Chachoapam</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Zapotitlan Lagunas</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Nicolas De Los Ranchos</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tecomatlan</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1625,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1656,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -1669,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -1682,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1695,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1726,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1757,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1788,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1819,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -1832,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1845,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -1858,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1889,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -1902,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -1915,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Cuitlahuac</t>
@@ -1928,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1941,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -1954,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -1967,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1980,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1993,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -2006,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2019,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tlalnelhuayocan</t>
@@ -2032,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Totutla</t>
@@ -2045,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2058,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -2071,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
